--- a/localized/en-us/games/books/bookdata/en_337/en_337.xlsx
+++ b/localized/en-us/games/books/bookdata/en_337/en_337.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mikejaffe/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GLEXP-Team-KitkitSchool-Hindi-Assets-MainApp\localized\en-us\games\books\bookdata\en_337\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C27FEFE7-B00A-4808-8199-140F66C354A0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27580" yWindow="460" windowWidth="23200" windowHeight="21940" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,34 +30,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Farida Goes to the Market</t>
-  </si>
-  <si>
-    <t>Farida wants to go to the market.</t>
-  </si>
-  <si>
-    <t>Farida writes a list of things she wants to buy at the market.</t>
-  </si>
-  <si>
-    <t>Farida buys rice and flour at the market.</t>
-  </si>
-  <si>
-    <t>Farida reads her list again.</t>
-  </si>
-  <si>
-    <t>Farida needs to buy fish and coconut.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farida is done. </t>
-  </si>
-  <si>
     <t>She goes back home.</t>
+  </si>
+  <si>
+    <t>Sania Goes to the Market</t>
+  </si>
+  <si>
+    <t>Sania wants to go to the market.</t>
+  </si>
+  <si>
+    <t>Sania writes a list of things she wants to buy at the market.</t>
+  </si>
+  <si>
+    <t>Sania buys rice and flour at the market.</t>
+  </si>
+  <si>
+    <t>Sania reads her list again.</t>
+  </si>
+  <si>
+    <t>Sania needs to buy fish and coconut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sania is done. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -101,6 +102,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -368,104 +372,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
